--- a/data/trans_bre/P22_R4-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P22_R4-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.923224705371342</v>
+        <v>-2.833738889693258</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.688765437178618</v>
+        <v>-5.607825518971957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.352743940242121</v>
+        <v>-3.51279905791415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.213350634578364</v>
+        <v>-3.092370244772522</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3444318314564819</v>
+        <v>-0.3392652798164238</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6730314603706642</v>
+        <v>-0.6485311286940786</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5647936434409305</v>
+        <v>-0.5614111722869881</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3645157519520974</v>
+        <v>-0.3756447743995125</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.520745689133448</v>
+        <v>3.00032919055368</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8000580206179716</v>
+        <v>-0.653867057099443</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.996925228862754</v>
+        <v>1.314725028696823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.69816242501823</v>
+        <v>1.811338590794482</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4777832264858216</v>
+        <v>0.5267198745837016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1278558362860948</v>
+        <v>-0.09164190940613516</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3058807578642566</v>
+        <v>0.4394357370692479</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.335809248474</v>
+        <v>0.3535464365508071</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.95770468798629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.480392263251459</v>
+        <v>-1.480392263251462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.09372660987462131</v>
@@ -749,7 +749,7 @@
         <v>-0.2186177269284777</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1175240705069312</v>
+        <v>-0.1175240705069314</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.657609410180227</v>
+        <v>-3.744688932448068</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.349809727195181</v>
+        <v>-5.221218329722434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.37450300720285</v>
+        <v>-4.545240685852506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.518018758694265</v>
+        <v>-4.475181333140269</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3495496273727882</v>
+        <v>-0.3398588041426207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5229861913399442</v>
+        <v>-0.5132432140324018</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4225682871416076</v>
+        <v>-0.4323841428163551</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.308569701678106</v>
+        <v>-0.2992040101381506</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.727407936399382</v>
+        <v>1.839116547159587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.4220982311284761</v>
+        <v>-0.4716917336947472</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7002679069069305</v>
+        <v>0.5548711553881098</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.328636893994716</v>
+        <v>1.336439689071206</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2317629315857048</v>
+        <v>0.2434602292444522</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.04531662945175994</v>
+        <v>-0.06139950456533683</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.107795086304831</v>
+        <v>0.09632510083887787</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1225542180466491</v>
+        <v>0.1290342332567707</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.09672369555965</v>
+        <v>-5.020514661929418</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.396610790149345</v>
+        <v>-4.259659487918816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8053405099125468</v>
+        <v>-0.8691307911228112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.083810048537163</v>
+        <v>-3.293707605858793</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3509696220953949</v>
+        <v>-0.3536868048645125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3502517178827049</v>
+        <v>-0.3571801291726442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1395020277393985</v>
+        <v>-0.1501967736754301</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1801126912736353</v>
+        <v>-0.1965089373417194</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.940947893850158</v>
+        <v>2.00151265641894</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.454001207978662</v>
+        <v>2.468644265662904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.995692874354081</v>
+        <v>4.175831181503298</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.109547132082896</v>
+        <v>3.822049379629443</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1823528614357459</v>
+        <v>0.1844941591481249</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2882517986264141</v>
+        <v>0.2988796243834885</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.060929699408798</v>
+        <v>1.100176904306112</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3553702394104555</v>
+        <v>0.3200000985149543</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.240981760699209</v>
+        <v>-4.683938299389312</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.65557176438084</v>
+        <v>-2.901230761680386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.6524508370864</v>
+        <v>-3.645089002789653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.964900162959038</v>
+        <v>-3.034316653994423</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3398706917915875</v>
+        <v>-0.3216978831201091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2247390476506247</v>
+        <v>-0.236426326248888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.25868874873986</v>
+        <v>-0.2536801615698991</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.146047320482307</v>
+        <v>-0.1469462569121874</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.052602356212666</v>
+        <v>1.024425700666867</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.133617257193767</v>
+        <v>2.674548493124611</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.231374468490987</v>
+        <v>2.583059392123895</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.562653282347987</v>
+        <v>3.328293537283972</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09261721171182147</v>
+        <v>0.08465366416992723</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3520618134887911</v>
+        <v>0.3109172670741264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2002076687522748</v>
+        <v>0.2365356001575241</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.219379893798832</v>
+        <v>0.2019191428015833</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.4714053434878601</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.2559672228847898</v>
+        <v>-0.255967222884787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1007976217786726</v>
@@ -1049,7 +1049,7 @@
         <v>-0.05735587505247695</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.01899291917240855</v>
+        <v>-0.01899291917240835</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.685821599022457</v>
+        <v>-2.648075752845105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.909065965418686</v>
+        <v>-3.158942684689058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.870528432414297</v>
+        <v>-1.761543102602418</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.002197483404435</v>
+        <v>-1.858869399143254</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2335969804748669</v>
+        <v>-0.232839396715865</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2973082068946522</v>
+        <v>-0.3191003353343493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2136966700470298</v>
+        <v>-0.1971702483370277</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1365635832921617</v>
+        <v>-0.128261730396977</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5343026149195953</v>
+        <v>0.4056656272892926</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1249365420969162</v>
+        <v>-0.2711886871583891</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8727920755731972</v>
+        <v>0.9662576258435297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.25985986716167</v>
+        <v>1.313717718660414</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05577678704253798</v>
+        <v>0.04313493184459179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.01740307417662025</v>
+        <v>-0.0325546018215625</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1174120894125801</v>
+        <v>0.1356633525861647</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1009200871325264</v>
+        <v>0.1051463817628575</v>
       </c>
     </row>
     <row r="19">
